--- a/biology/Botanique/Ageratum_conyzoides/Ageratum_conyzoides.xlsx
+++ b/biology/Botanique/Ageratum_conyzoides/Ageratum_conyzoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ageratum conyzoides est une espèce de plante à fleurs de la famille des Asteraceae et du genre Ageratum.
 </t>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Il s'agit d'une herbe annuelle, très odorante, à tige dressée mollement pubescente.
-Feuilles
-Les feuilles sont souples, douces au toucher, opposées, ovales. 
-Fleurs
-L'espèce présente une cyme de capitules terminaux avec des fleurs mauve pâle, bleutées ou blanches comportant trois rangées de bractées oblongues, acuminées avec trois nervures bien marquées.
-Fruits
-Les fruits sont des petits akènes devenant noirs à maturité, pubescents ou glabrescents.
-Sa germination est hypogée. Ses graines exigent deux semaines pour germer.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une herbe annuelle, très odorante, à tige dressée mollement pubescente.
 </t>
         </is>
       </c>
@@ -547,14 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Usages</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au Gabon, cette plante est utilisée pour aider la cicatrisation des plaies, réduire les douleurs des femmes enceintes, les symptômes de la blennorragie, les rhumatismes et la fièvre[1].
-A Madagascar, où elle est surnommée "brède des jeunes filles", elle est utilisée comme plante antitussive[2].
-En Nouvelle-Calédonie, Ageratum conyzoides est surnommé "arnica kanak" et est utilisé en compresses pour soulager les entorses, les contusions et les plaies. Son huile essentielle est utilisée comme nématicide et antilarve.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont souples, douces au toucher, opposées, ovales. 
 </t>
         </is>
       </c>
@@ -580,12 +594,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce présente une cyme de capitules terminaux avec des fleurs mauve pâle, bleutées ou blanches comportant trois rangées de bractées oblongues, acuminées avec trois nervures bien marquées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ageratum_conyzoides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ageratum_conyzoides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des petits akènes devenant noirs à maturité, pubescents ou glabrescents.
+Sa germination est hypogée. Ses graines exigent deux semaines pour germer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ageratum_conyzoides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ageratum_conyzoides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Gabon, cette plante est utilisée pour aider la cicatrisation des plaies, réduire les douleurs des femmes enceintes, les symptômes de la blennorragie, les rhumatismes et la fièvre.
+A Madagascar, où elle est surnommée "brède des jeunes filles", elle est utilisée comme plante antitussive.
+En Nouvelle-Calédonie, Ageratum conyzoides est surnommé "arnica kanak" et est utilisé en compresses pour soulager les entorses, les contusions et les plaies. Son huile essentielle est utilisée comme nématicide et antilarve.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ageratum_conyzoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ageratum_conyzoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Caractère envahissant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est envahissante en Australie tropicale, dans l’Océan Indien et en Océanie (en particulier en Nouvelle-Calédonie). On peut la rencontrer sur le bord des chemins, dans les friches et dans certains pâturages[3],[4]. Les herbivores ne la mangent pas[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est envahissante en Australie tropicale, dans l’Océan Indien et en Océanie (en particulier en Nouvelle-Calédonie). On peut la rencontrer sur le bord des chemins, dans les friches et dans certains pâturages,. Les herbivores ne la mangent pas.
 </t>
         </is>
       </c>
